--- a/nr-add-ruim-note/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/nr-add-ruim-note/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-medication-reconciliation-document-type</t>
+    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-document-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-23T09:15:00Z</t>
+    <t>2024-12-26T09:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/CodeSystem/fr-document-type</t>
+    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-document-type</t>
   </si>
 </sst>
 </file>
